--- a/submissions/Fernando_Romero.xlsx
+++ b/submissions/Fernando_Romero.xlsx
@@ -2160,178 +2160,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
+  <dxfs count="101">
     <dxf>
       <font>
         <b val="true"/>
@@ -3310,15 +3139,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>120960</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>884880</xdr:colOff>
+      <xdr:colOff>911520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3333,8 +3162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="120960" y="626400"/>
-          <a:ext cx="763920" cy="1002240"/>
+          <a:off x="147960" y="617400"/>
+          <a:ext cx="763560" cy="1001880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3349,15 +3178,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3372,8 +3201,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="1305000"/>
-          <a:ext cx="317520" cy="209520"/>
+          <a:off x="1146240" y="1296000"/>
+          <a:ext cx="317160" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3388,15 +3217,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>335880</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3411,8 +3240,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="1800360"/>
-          <a:ext cx="282240" cy="209520"/>
+          <a:off x="4071600" y="1791360"/>
+          <a:ext cx="281880" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3427,15 +3256,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3450,8 +3279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="809640"/>
-          <a:ext cx="317520" cy="209880"/>
+          <a:off x="1146240" y="800640"/>
+          <a:ext cx="317160" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3466,15 +3295,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>335880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3489,8 +3318,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="809640"/>
-          <a:ext cx="282240" cy="190440"/>
+          <a:off x="4071600" y="800640"/>
+          <a:ext cx="281880" cy="190080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3505,15 +3334,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>335880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3528,8 +3357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="1552680"/>
-          <a:ext cx="282240" cy="190440"/>
+          <a:off x="4071600" y="1543680"/>
+          <a:ext cx="281880" cy="190080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3544,15 +3373,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3567,8 +3396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="2048040"/>
-          <a:ext cx="317520" cy="190080"/>
+          <a:off x="1146240" y="2039040"/>
+          <a:ext cx="317160" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3583,15 +3412,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>78120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3606,8 +3435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="1057320"/>
-          <a:ext cx="317520" cy="222120"/>
+          <a:off x="1146240" y="1048320"/>
+          <a:ext cx="317160" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3622,15 +3451,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>324360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3645,8 +3474,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="1305000"/>
-          <a:ext cx="270720" cy="222120"/>
+          <a:off x="4071600" y="1296000"/>
+          <a:ext cx="270360" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3661,15 +3490,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>324360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>241920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3684,8 +3513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="2048040"/>
-          <a:ext cx="270720" cy="222480"/>
+          <a:off x="4071600" y="2039040"/>
+          <a:ext cx="270360" cy="222120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3700,15 +3529,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3723,8 +3552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="1552680"/>
-          <a:ext cx="317520" cy="190440"/>
+          <a:off x="1146240" y="1543680"/>
+          <a:ext cx="317160" cy="190080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3739,15 +3568,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3762,8 +3591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="1800360"/>
-          <a:ext cx="317520" cy="190080"/>
+          <a:off x="1146240" y="1791360"/>
+          <a:ext cx="317160" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,15 +3607,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3801,8 +3630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="1057320"/>
-          <a:ext cx="270720" cy="190440"/>
+          <a:off x="4071600" y="1048320"/>
+          <a:ext cx="270360" cy="190080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3817,15 +3646,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>231480</xdr:rowOff>
+      <xdr:rowOff>222120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3840,8 +3669,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="2505240"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="1146240" y="2496240"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3856,15 +3685,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>241920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3879,8 +3708,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="3495960"/>
-          <a:ext cx="294120" cy="222120"/>
+          <a:off x="4071600" y="3486960"/>
+          <a:ext cx="293760" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3895,15 +3724,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3918,8 +3747,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="3000600"/>
-          <a:ext cx="329400" cy="222120"/>
+          <a:off x="1146240" y="2991600"/>
+          <a:ext cx="329040" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3934,15 +3763,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3957,8 +3786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="2752920"/>
-          <a:ext cx="329400" cy="222120"/>
+          <a:off x="1146240" y="2743920"/>
+          <a:ext cx="329040" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3973,15 +3802,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3996,8 +3825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="3743640"/>
-          <a:ext cx="294120" cy="222480"/>
+          <a:off x="4071600" y="3734640"/>
+          <a:ext cx="293760" cy="222120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4012,15 +3841,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4035,8 +3864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="3000600"/>
-          <a:ext cx="294120" cy="222120"/>
+          <a:off x="4071600" y="2991600"/>
+          <a:ext cx="293760" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4051,15 +3880,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4074,8 +3903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="3495960"/>
-          <a:ext cx="341280" cy="152280"/>
+          <a:off x="1146240" y="3486960"/>
+          <a:ext cx="340920" cy="151920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4090,15 +3919,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4113,8 +3942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="3248280"/>
-          <a:ext cx="341280" cy="152280"/>
+          <a:off x="1146240" y="3239280"/>
+          <a:ext cx="340920" cy="151920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,15 +3958,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4152,8 +3981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="2752920"/>
-          <a:ext cx="294120" cy="152280"/>
+          <a:off x="4071600" y="2743920"/>
+          <a:ext cx="293760" cy="151920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4168,15 +3997,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4191,8 +4020,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="3743640"/>
-          <a:ext cx="329400" cy="222480"/>
+          <a:off x="1146240" y="3734640"/>
+          <a:ext cx="329040" cy="222120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4207,15 +4036,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4230,8 +4059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="2505240"/>
-          <a:ext cx="294120" cy="222120"/>
+          <a:off x="4071600" y="2496240"/>
+          <a:ext cx="293760" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4246,15 +4075,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>241920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4269,8 +4098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="3248280"/>
-          <a:ext cx="294120" cy="222120"/>
+          <a:off x="4071600" y="3239280"/>
+          <a:ext cx="293760" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4285,15 +4114,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4308,8 +4137,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="4200840"/>
-          <a:ext cx="329400" cy="209520"/>
+          <a:off x="1146240" y="4191840"/>
+          <a:ext cx="329040" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,15 +4153,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>335880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4347,8 +4176,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="5191200"/>
-          <a:ext cx="282240" cy="209520"/>
+          <a:off x="4071600" y="5182200"/>
+          <a:ext cx="281880" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4363,15 +4192,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4386,8 +4215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="4695840"/>
-          <a:ext cx="329400" cy="209880"/>
+          <a:off x="1146240" y="4686840"/>
+          <a:ext cx="329040" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4402,15 +4231,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4425,8 +4254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="4200840"/>
-          <a:ext cx="294120" cy="202680"/>
+          <a:off x="4071600" y="4191840"/>
+          <a:ext cx="293760" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4441,15 +4270,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4464,8 +4293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="4943520"/>
-          <a:ext cx="294120" cy="203040"/>
+          <a:off x="4071600" y="4934520"/>
+          <a:ext cx="293760" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4480,15 +4309,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>231480</xdr:rowOff>
+      <xdr:rowOff>222120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4503,8 +4332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="5438880"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="1146240" y="5429880"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4519,15 +4348,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4542,8 +4371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="4448160"/>
-          <a:ext cx="341280" cy="209880"/>
+          <a:off x="1146240" y="4439160"/>
+          <a:ext cx="340920" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4558,15 +4387,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4581,8 +4410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="4695840"/>
-          <a:ext cx="294120" cy="209880"/>
+          <a:off x="4071600" y="4686840"/>
+          <a:ext cx="293760" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4597,15 +4426,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4620,8 +4449,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="5438880"/>
-          <a:ext cx="294120" cy="209520"/>
+          <a:off x="4071600" y="5429880"/>
+          <a:ext cx="293760" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4636,15 +4465,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4659,8 +4488,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="4943520"/>
-          <a:ext cx="305640" cy="203040"/>
+          <a:off x="1146240" y="4934520"/>
+          <a:ext cx="305280" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4675,15 +4504,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4698,8 +4527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="5191200"/>
-          <a:ext cx="305640" cy="203040"/>
+          <a:off x="1146240" y="5182200"/>
+          <a:ext cx="305280" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4714,15 +4543,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4737,8 +4566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="4448160"/>
-          <a:ext cx="270720" cy="203040"/>
+          <a:off x="4071600" y="4439160"/>
+          <a:ext cx="270360" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4753,15 +4582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4776,8 +4605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="5896080"/>
-          <a:ext cx="329400" cy="222120"/>
+          <a:off x="1146240" y="5887080"/>
+          <a:ext cx="329040" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4792,15 +4621,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4815,8 +4644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="6886800"/>
-          <a:ext cx="294120" cy="222120"/>
+          <a:off x="4071600" y="6877800"/>
+          <a:ext cx="293760" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4831,15 +4660,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4854,8 +4683,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="6391440"/>
-          <a:ext cx="329400" cy="222120"/>
+          <a:off x="1146240" y="6382440"/>
+          <a:ext cx="329040" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4870,15 +4699,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4893,8 +4722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="5896080"/>
-          <a:ext cx="294120" cy="190440"/>
+          <a:off x="4071600" y="5887080"/>
+          <a:ext cx="293760" cy="190080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4909,15 +4738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4932,8 +4761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="6639120"/>
-          <a:ext cx="294120" cy="190080"/>
+          <a:off x="4071600" y="6630120"/>
+          <a:ext cx="293760" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4948,15 +4777,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4971,8 +4800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="7134480"/>
-          <a:ext cx="341280" cy="190080"/>
+          <a:off x="1146240" y="7125480"/>
+          <a:ext cx="340920" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4987,15 +4816,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5010,8 +4839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="6143760"/>
-          <a:ext cx="341280" cy="190080"/>
+          <a:off x="1146240" y="6134760"/>
+          <a:ext cx="340920" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5026,15 +4855,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5049,8 +4878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="6391440"/>
-          <a:ext cx="294120" cy="190080"/>
+          <a:off x="4071600" y="6382440"/>
+          <a:ext cx="293760" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5065,15 +4894,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5088,8 +4917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="7134480"/>
-          <a:ext cx="294120" cy="190080"/>
+          <a:off x="4071600" y="7125480"/>
+          <a:ext cx="293760" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5104,15 +4933,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5127,8 +4956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="6639120"/>
-          <a:ext cx="329400" cy="222120"/>
+          <a:off x="1146240" y="6630120"/>
+          <a:ext cx="329040" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5143,15 +4972,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5166,8 +4995,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119240" y="6886800"/>
-          <a:ext cx="329400" cy="222120"/>
+          <a:off x="1146240" y="6877800"/>
+          <a:ext cx="329040" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5182,15 +5011,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>241560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5205,8 +5034,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4044600" y="6143760"/>
-          <a:ext cx="294120" cy="222120"/>
+          <a:off x="4071600" y="6134760"/>
+          <a:ext cx="293760" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5221,15 +5050,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5244,8 +5073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="797040"/>
-          <a:ext cx="329400" cy="215640"/>
+          <a:off x="7819560" y="788040"/>
+          <a:ext cx="329040" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5260,15 +5089,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5283,8 +5112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="1787760"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="1778760"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5299,15 +5128,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5322,8 +5151,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="1292400"/>
-          <a:ext cx="329400" cy="203040"/>
+          <a:off x="7819560" y="1283400"/>
+          <a:ext cx="329040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5338,15 +5167,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5361,8 +5190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="797040"/>
-          <a:ext cx="293400" cy="203040"/>
+          <a:off x="11286000" y="788040"/>
+          <a:ext cx="293040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5377,15 +5206,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5400,8 +5229,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="1540080"/>
-          <a:ext cx="293400" cy="203040"/>
+          <a:off x="11286000" y="1531080"/>
+          <a:ext cx="293040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5416,15 +5245,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5439,8 +5268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="2035440"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="7819560" y="2026440"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5455,15 +5284,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5478,8 +5307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="1044720"/>
-          <a:ext cx="329400" cy="203040"/>
+          <a:off x="7819560" y="1035720"/>
+          <a:ext cx="329040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5494,15 +5323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5517,8 +5346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="1292400"/>
-          <a:ext cx="293400" cy="203040"/>
+          <a:off x="11286000" y="1283400"/>
+          <a:ext cx="293040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5533,15 +5362,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5556,8 +5385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="2035440"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="2026440"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5572,15 +5401,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5595,8 +5424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="2492640"/>
-          <a:ext cx="341280" cy="202680"/>
+          <a:off x="7819560" y="2483640"/>
+          <a:ext cx="340920" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5611,15 +5440,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>27720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5634,8 +5463,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="3483360"/>
-          <a:ext cx="340920" cy="202680"/>
+          <a:off x="11286000" y="3474360"/>
+          <a:ext cx="340560" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5650,15 +5479,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5673,8 +5502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="2988000"/>
-          <a:ext cx="341280" cy="202680"/>
+          <a:off x="7819560" y="2979000"/>
+          <a:ext cx="340920" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5689,15 +5518,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>231480</xdr:rowOff>
+      <xdr:rowOff>222120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5712,8 +5541,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="5883480"/>
-          <a:ext cx="329400" cy="215280"/>
+          <a:off x="7819560" y="5874480"/>
+          <a:ext cx="329040" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5728,15 +5557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5751,8 +5580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="6874200"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="6865200"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5767,15 +5596,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5790,8 +5619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="6378840"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="7819560" y="6369840"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5806,15 +5635,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5829,8 +5658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="5883480"/>
-          <a:ext cx="293400" cy="203040"/>
+          <a:off x="11286000" y="5874480"/>
+          <a:ext cx="293040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5845,15 +5674,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5868,8 +5697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="6626520"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="6617520"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5884,15 +5713,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5907,8 +5736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="7121880"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="7819560" y="7112880"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5923,15 +5752,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5946,8 +5775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="7121880"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="7112880"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5962,15 +5791,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5985,8 +5814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="6378840"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="6369840"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6001,15 +5830,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6024,8 +5853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="6131160"/>
-          <a:ext cx="341280" cy="202680"/>
+          <a:off x="7819560" y="6122160"/>
+          <a:ext cx="340920" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6040,15 +5869,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6063,8 +5892,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="6626520"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="7819560" y="6617520"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6079,15 +5908,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6102,8 +5931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="6874200"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="7819560" y="6865200"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6118,15 +5947,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6141,8 +5970,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="6131160"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="6122160"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6157,15 +5986,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6180,8 +6009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="4175640"/>
-          <a:ext cx="341280" cy="202680"/>
+          <a:off x="7819560" y="4166640"/>
+          <a:ext cx="340920" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6196,15 +6025,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>27720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6219,8 +6048,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="5166000"/>
-          <a:ext cx="340920" cy="203040"/>
+          <a:off x="11286000" y="5157000"/>
+          <a:ext cx="340560" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6235,15 +6064,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>242640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6258,8 +6087,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="4671000"/>
-          <a:ext cx="341280" cy="202680"/>
+          <a:off x="7819560" y="4662000"/>
+          <a:ext cx="340920" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6274,15 +6103,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6297,8 +6126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="4175640"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="4166640"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6313,15 +6142,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6336,8 +6165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="5413680"/>
-          <a:ext cx="329400" cy="203040"/>
+          <a:off x="7819560" y="5404680"/>
+          <a:ext cx="329040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6352,15 +6181,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6375,8 +6204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="4918320"/>
-          <a:ext cx="293400" cy="203040"/>
+          <a:off x="11286000" y="4909320"/>
+          <a:ext cx="293040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6391,15 +6220,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>242640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6414,8 +6243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="4423320"/>
-          <a:ext cx="329400" cy="202680"/>
+          <a:off x="7819560" y="4414320"/>
+          <a:ext cx="329040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6430,15 +6259,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6453,8 +6282,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="5413680"/>
-          <a:ext cx="293400" cy="203040"/>
+          <a:off x="11286000" y="5404680"/>
+          <a:ext cx="293040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6469,15 +6298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>242640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6492,8 +6321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="4671000"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="4662000"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6508,15 +6337,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>242640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6531,8 +6360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="4423320"/>
-          <a:ext cx="293400" cy="202680"/>
+          <a:off x="11286000" y="4414320"/>
+          <a:ext cx="293040" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6547,15 +6376,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6570,8 +6399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="4918320"/>
-          <a:ext cx="329400" cy="203040"/>
+          <a:off x="7819560" y="4909320"/>
+          <a:ext cx="329040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6586,15 +6415,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6609,8 +6438,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="5166000"/>
-          <a:ext cx="329400" cy="203040"/>
+          <a:off x="7819560" y="5157000"/>
+          <a:ext cx="329040" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6625,15 +6454,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>27720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>231480</xdr:rowOff>
+      <xdr:rowOff>222120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6648,8 +6477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="2492640"/>
-          <a:ext cx="340920" cy="215280"/>
+          <a:off x="11286000" y="2483640"/>
+          <a:ext cx="340560" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6664,15 +6493,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>27720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6687,8 +6516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="3235680"/>
-          <a:ext cx="340920" cy="222120"/>
+          <a:off x="11286000" y="3226680"/>
+          <a:ext cx="340560" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6703,15 +6532,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6726,8 +6555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="3731040"/>
-          <a:ext cx="341280" cy="222120"/>
+          <a:off x="7819560" y="3722040"/>
+          <a:ext cx="340920" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6742,15 +6571,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6765,8 +6594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="2740320"/>
-          <a:ext cx="353520" cy="222120"/>
+          <a:off x="7819560" y="2731320"/>
+          <a:ext cx="353160" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6781,15 +6610,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6804,8 +6633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="2988000"/>
-          <a:ext cx="352800" cy="222120"/>
+          <a:off x="11286000" y="2979000"/>
+          <a:ext cx="352440" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6820,15 +6649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>238680</xdr:rowOff>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6843,8 +6672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="3731040"/>
-          <a:ext cx="352800" cy="222120"/>
+          <a:off x="11286000" y="3722040"/>
+          <a:ext cx="352440" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6859,15 +6688,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6882,8 +6711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="3235680"/>
-          <a:ext cx="353520" cy="215280"/>
+          <a:off x="7819560" y="3226680"/>
+          <a:ext cx="353160" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6898,15 +6727,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>231840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6921,8 +6750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="3483360"/>
-          <a:ext cx="353520" cy="215280"/>
+          <a:off x="7819560" y="3474360"/>
+          <a:ext cx="353160" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6937,15 +6766,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>231480</xdr:rowOff>
+      <xdr:rowOff>222120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6960,8 +6789,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="2740320"/>
-          <a:ext cx="352800" cy="215280"/>
+          <a:off x="11286000" y="2731320"/>
+          <a:ext cx="352440" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6976,15 +6805,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6999,8 +6828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="1540080"/>
-          <a:ext cx="341280" cy="222120"/>
+          <a:off x="7819560" y="1531080"/>
+          <a:ext cx="340920" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7015,15 +6844,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7038,8 +6867,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7792560" y="1787760"/>
-          <a:ext cx="341280" cy="222120"/>
+          <a:off x="7819560" y="1778760"/>
+          <a:ext cx="340920" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7054,15 +6883,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>27720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7077,8 +6906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11259000" y="1044720"/>
-          <a:ext cx="340920" cy="222120"/>
+          <a:off x="11286000" y="1035720"/>
+          <a:ext cx="340560" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7093,15 +6922,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>626040</xdr:colOff>
+      <xdr:colOff>653040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>559800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7116,8 +6945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="626040" y="8011440"/>
-          <a:ext cx="4312440" cy="4584240"/>
+          <a:off x="653040" y="8002440"/>
+          <a:ext cx="4312080" cy="4583880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7137,15 +6966,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7160,8 +6989,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="435600"/>
-          <a:ext cx="328320" cy="196920"/>
+          <a:off x="2074320" y="426600"/>
+          <a:ext cx="327960" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7176,15 +7005,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7199,8 +7028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="645120"/>
-          <a:ext cx="316440" cy="209160"/>
+          <a:off x="2074320" y="636120"/>
+          <a:ext cx="316080" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7215,15 +7044,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>65160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7238,8 +7067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="854640"/>
-          <a:ext cx="316440" cy="196920"/>
+          <a:off x="2074320" y="845640"/>
+          <a:ext cx="316080" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7254,15 +7083,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>89640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7277,8 +7106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="213480"/>
-          <a:ext cx="328320" cy="209520"/>
+          <a:off x="2074320" y="204480"/>
+          <a:ext cx="327960" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7293,15 +7122,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7316,8 +7145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="1064160"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2074320" y="1055160"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7332,15 +7161,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7355,8 +7184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="1273680"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="1264680"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7371,15 +7200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7394,8 +7223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="1483200"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="1474200"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7410,15 +7239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>194040</xdr:rowOff>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7433,8 +7262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="1706040"/>
-          <a:ext cx="328320" cy="164160"/>
+          <a:off x="2062440" y="1697040"/>
+          <a:ext cx="327960" cy="163800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7449,15 +7278,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7472,8 +7301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="1902240"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="1893240"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7488,15 +7317,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7511,8 +7340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="2111760"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="2102760"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7527,15 +7356,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7550,8 +7379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="2309040"/>
-          <a:ext cx="328320" cy="221400"/>
+          <a:off x="2062440" y="2300040"/>
+          <a:ext cx="327960" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7566,15 +7395,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>89640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7589,8 +7418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="2518560"/>
-          <a:ext cx="258120" cy="196200"/>
+          <a:off x="2074320" y="2509560"/>
+          <a:ext cx="257760" cy="195840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7605,15 +7434,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>65160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7628,8 +7457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="2728080"/>
-          <a:ext cx="328320" cy="209520"/>
+          <a:off x="2062440" y="2719080"/>
+          <a:ext cx="327960" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7644,15 +7473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>65160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7667,8 +7496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="2950200"/>
-          <a:ext cx="328320" cy="196920"/>
+          <a:off x="2062440" y="2941200"/>
+          <a:ext cx="327960" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7683,15 +7512,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7706,8 +7535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="3147480"/>
-          <a:ext cx="328320" cy="195840"/>
+          <a:off x="2062440" y="3138480"/>
+          <a:ext cx="327960" cy="195480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7722,15 +7551,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7745,8 +7574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="3369240"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="3360240"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7761,15 +7590,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>89640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7784,8 +7613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="3566520"/>
-          <a:ext cx="328320" cy="221400"/>
+          <a:off x="2074320" y="3557520"/>
+          <a:ext cx="327960" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7800,15 +7629,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7823,8 +7652,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="3776040"/>
-          <a:ext cx="328320" cy="221400"/>
+          <a:off x="2062440" y="3767040"/>
+          <a:ext cx="327960" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7839,15 +7668,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7862,8 +7691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="3985560"/>
-          <a:ext cx="328320" cy="221400"/>
+          <a:off x="2062440" y="3976560"/>
+          <a:ext cx="327960" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7878,15 +7707,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7901,8 +7730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="4195080"/>
-          <a:ext cx="340200" cy="221400"/>
+          <a:off x="2062440" y="4186080"/>
+          <a:ext cx="339840" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7917,15 +7746,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7940,8 +7769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="4404600"/>
-          <a:ext cx="340200" cy="221400"/>
+          <a:off x="2062440" y="4395600"/>
+          <a:ext cx="339840" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7956,15 +7785,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>200880</xdr:rowOff>
+      <xdr:rowOff>191880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7979,8 +7808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="4601160"/>
-          <a:ext cx="340200" cy="222120"/>
+          <a:off x="2062440" y="4592160"/>
+          <a:ext cx="339840" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7995,15 +7824,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>200880</xdr:rowOff>
+      <xdr:rowOff>191880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8018,8 +7847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2023560" y="4810680"/>
-          <a:ext cx="352080" cy="222120"/>
+          <a:off x="2050560" y="4801680"/>
+          <a:ext cx="351720" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8034,15 +7863,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>203760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8057,8 +7886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2023560" y="5033160"/>
-          <a:ext cx="352080" cy="209160"/>
+          <a:off x="2050560" y="5024160"/>
+          <a:ext cx="351720" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8073,15 +7902,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8096,8 +7925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2023560" y="5255280"/>
-          <a:ext cx="340200" cy="209160"/>
+          <a:off x="2050560" y="5246280"/>
+          <a:ext cx="339840" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8112,15 +7941,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8135,8 +7964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="5464800"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="5455800"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8151,15 +7980,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8174,8 +8003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="5674320"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="5665320"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8190,15 +8019,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>65160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8213,8 +8042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="5883840"/>
-          <a:ext cx="328320" cy="196920"/>
+          <a:off x="2062440" y="5874840"/>
+          <a:ext cx="327960" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8229,15 +8058,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8252,8 +8081,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="6093360"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="6084360"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8268,15 +8097,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>89640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8291,8 +8120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047320" y="6290640"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2074320" y="6281640"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8307,15 +8136,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>65160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8330,8 +8159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="6500160"/>
-          <a:ext cx="328320" cy="209160"/>
+          <a:off x="2062440" y="6491160"/>
+          <a:ext cx="327960" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8346,15 +8175,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8369,8 +8198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2023560" y="6709680"/>
-          <a:ext cx="340200" cy="221400"/>
+          <a:off x="2050560" y="6700680"/>
+          <a:ext cx="339840" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8394,9 +8223,9 @@
   <dimension ref="A1:CR66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="U57" activeCellId="0" sqref="U57"/>
+      <selection pane="bottomLeft" activeCell="AH29" activeCellId="0" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8590,7 +8419,7 @@
       <c r="AI2" s="10"/>
       <c r="AJ2" s="16" t="n">
         <f aca="false">SUM(AJ4:AJ66)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="0"/>
       <c r="AL2" s="0"/>
@@ -8885,9 +8714,13 @@
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
+      <c r="O4" s="40" t="n">
+        <v>3</v>
+      </c>
       <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" s="43"/>
       <c r="S4" s="31"/>
       <c r="T4" s="32" t="str">
@@ -8920,13 +8753,17 @@
       </c>
       <c r="AD4" s="46"/>
       <c r="AE4" s="39"/>
-      <c r="AF4" s="47"/>
+      <c r="AF4" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
+      <c r="AH4" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="AI4" s="48"/>
-      <c r="AJ4" s="49" t="str">
+      <c r="AJ4" s="49" t="n">
         <f aca="false">IF(OR(O4="",Q4=""),"",SUM(AO4,AQ4,AP4,AR4))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AK4" s="26" t="str">
         <f aca="false">IF(D4&gt;F4,"V",IF(D4=F4,"E","D"))</f>
@@ -8938,27 +8775,27 @@
       </c>
       <c r="AM4" s="26" t="str">
         <f aca="false">IF(O4&gt;Q4,"V",IF(O4=Q4,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN4" s="26" t="str">
         <f aca="false">IF(AF4&gt;AH4,"V",IF(AF4=AH4,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO4" s="26" t="str">
+        <v>V</v>
+      </c>
+      <c r="AO4" s="26" t="n">
         <f aca="false">IF(OR(O4="",Q4=""),"",IF(AK4=AM4,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AP4" s="26" t="str">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="26" t="n">
         <f aca="false">IF(OR(AF4="",AH4=""),"",IF(AL4=AN4,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AQ4" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="26" t="n">
         <f aca="false">IF(OR(O4="",Q4=""),"",IF(AND(D4=O4,F4=Q4),EFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AR4" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="26" t="n">
         <f aca="false">IF(OR(AF4="",AH4=""),"",IF(AND(U4=AF4,W4=AH4),2,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AU4" s="27" t="s">
         <v>41</v>
@@ -9155,9 +8992,13 @@
       </c>
       <c r="M5" s="60"/>
       <c r="N5" s="61"/>
-      <c r="O5" s="40"/>
+      <c r="O5" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="R5" s="43"/>
       <c r="S5" s="55"/>
       <c r="T5" s="56" t="str">
@@ -9190,15 +9031,17 @@
       </c>
       <c r="AD5" s="60"/>
       <c r="AE5" s="61"/>
-      <c r="AF5" s="47"/>
+      <c r="AF5" s="47" t="n">
+        <v>3</v>
+      </c>
       <c r="AG5" s="41"/>
-      <c r="AH5" s="42"/>
+      <c r="AH5" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="AI5" s="48"/>
-      <c r="AJ5" s="49" t="inlineStr">
+      <c r="AJ5" s="49" t="n">
         <f aca="false">IF(OR(O5="",Q5=""),"",SUM(AO5,AQ5,AP5,AR5))</f>
-        <is>
-          <t/>
-        </is>
+        <v>5</v>
       </c>
       <c r="AK5" s="26" t="str">
         <f aca="false">IF(D5&gt;F5,"V",IF(D5=F5,"E","D"))</f>
@@ -9210,35 +9053,27 @@
       </c>
       <c r="AM5" s="26" t="str">
         <f aca="false">IF(O5&gt;Q5,"V",IF(O5=Q5,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN5" s="26" t="str">
         <f aca="false">IF(AF5&gt;AH5,"V",IF(AF5=AH5,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO5" s="26" t="inlineStr">
+        <v>V</v>
+      </c>
+      <c r="AO5" s="26" t="n">
         <f aca="false">IF(OR(O5="",Q5=""),"",IF(AK5=AM5,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP5" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="26" t="n">
         <f aca="false">IF(OR(AF5="",AH5=""),"",IF(AL5=AN5,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ5" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="26" t="n">
         <f aca="false">IF(OR(O5="",Q5=""),"",IF(AND(D5=O5,F5=Q5),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR5" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="26" t="n">
         <f aca="false">IF(OR(AF5="",AH5=""),"",IF(AND(U5=AF5,W5=AH5),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>2</v>
       </c>
       <c r="AU5" s="27" t="s">
         <v>45</v>
@@ -9441,9 +9276,13 @@
       </c>
       <c r="M6" s="60"/>
       <c r="N6" s="61"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="R6" s="43"/>
       <c r="S6" s="65"/>
       <c r="T6" s="56" t="str">
@@ -9476,15 +9315,17 @@
       </c>
       <c r="AD6" s="60"/>
       <c r="AE6" s="61"/>
-      <c r="AF6" s="47"/>
+      <c r="AF6" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AG6" s="41"/>
-      <c r="AH6" s="42"/>
+      <c r="AH6" s="42" t="n">
+        <v>5</v>
+      </c>
       <c r="AI6" s="48"/>
-      <c r="AJ6" s="49" t="inlineStr">
+      <c r="AJ6" s="49" t="n">
         <f aca="false">IF(OR(O6="",Q6=""),"",SUM(AO6,AQ6,AP6,AR6))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK6" s="26" t="str">
         <f aca="false">IF(D6&gt;F6,"V",IF(D6=F6,"E","D"))</f>
@@ -9500,31 +9341,23 @@
       </c>
       <c r="AN6" s="26" t="str">
         <f aca="false">IF(AF6&gt;AH6,"V",IF(AF6=AH6,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO6" s="26" t="inlineStr">
+        <v>D</v>
+      </c>
+      <c r="AO6" s="26" t="n">
         <f aca="false">IF(OR(O6="",Q6=""),"",IF(AK6=AM6,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP6" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="26" t="n">
         <f aca="false">IF(OR(AF6="",AH6=""),"",IF(AL6=AN6,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ6" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="26" t="n">
         <f aca="false">IF(OR(O6="",Q6=""),"",IF(AND(D6=O6,F6=Q6),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR6" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="26" t="n">
         <f aca="false">IF(OR(AF6="",AH6=""),"",IF(AND(U6=AF6,W6=AH6),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AU6" s="27" t="s">
         <v>49</v>
@@ -9727,9 +9560,13 @@
       </c>
       <c r="M7" s="60"/>
       <c r="N7" s="61"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
+      <c r="Q7" s="42" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" s="43"/>
       <c r="S7" s="55"/>
       <c r="T7" s="56" t="str">
@@ -9762,15 +9599,17 @@
       </c>
       <c r="AD7" s="60"/>
       <c r="AE7" s="61"/>
-      <c r="AF7" s="47"/>
+      <c r="AF7" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="AG7" s="41"/>
-      <c r="AH7" s="42"/>
+      <c r="AH7" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="AI7" s="48"/>
-      <c r="AJ7" s="49" t="inlineStr">
+      <c r="AJ7" s="49" t="n">
         <f aca="false">IF(OR(O7="",Q7=""),"",SUM(AO7,AQ7,AP7,AR7))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK7" s="26" t="str">
         <f aca="false">IF(D7&gt;F7,"V",IF(D7=F7,"E","D"))</f>
@@ -9782,35 +9621,27 @@
       </c>
       <c r="AM7" s="26" t="str">
         <f aca="false">IF(O7&gt;Q7,"V",IF(O7=Q7,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN7" s="26" t="str">
         <f aca="false">IF(AF7&gt;AH7,"V",IF(AF7=AH7,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO7" s="26" t="inlineStr">
+        <v>D</v>
+      </c>
+      <c r="AO7" s="26" t="n">
         <f aca="false">IF(OR(O7="",Q7=""),"",IF(AK7=AM7,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP7" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="26" t="n">
         <f aca="false">IF(OR(AF7="",AH7=""),"",IF(AL7=AN7,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ7" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="26" t="n">
         <f aca="false">IF(OR(O7="",Q7=""),"",IF(AND(D7=O7,F7=Q7),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR7" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="26" t="n">
         <f aca="false">IF(OR(AF7="",AH7=""),"",IF(AND(U7=AF7,W7=AH7),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AU7" s="27" t="s">
         <v>53</v>
@@ -10013,9 +9844,13 @@
       </c>
       <c r="M8" s="60"/>
       <c r="N8" s="61"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="Q8" s="42" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" s="43"/>
       <c r="S8" s="55"/>
       <c r="T8" s="56" t="str">
@@ -10052,11 +9887,9 @@
       <c r="AG8" s="41"/>
       <c r="AH8" s="42"/>
       <c r="AI8" s="48"/>
-      <c r="AJ8" s="49" t="inlineStr">
+      <c r="AJ8" s="49" t="n">
         <f aca="false">IF(OR(O8="",Q8=""),"",SUM(AO8,AQ8,AP8,AR8))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK8" s="26" t="str">
         <f aca="false">IF(D8&gt;F8,"V",IF(D8=F8,"E","D"))</f>
@@ -10068,17 +9901,15 @@
       </c>
       <c r="AM8" s="26" t="str">
         <f aca="false">IF(O8&gt;Q8,"V",IF(O8=Q8,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN8" s="26" t="str">
         <f aca="false">IF(AF8&gt;AH8,"V",IF(AF8=AH8,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO8" s="26" t="inlineStr">
+      <c r="AO8" s="26" t="n">
         <f aca="false">IF(OR(O8="",Q8=""),"",IF(AK8=AM8,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AP8" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF8="",AH8=""),"",IF(AL8=AN8,PFASE1,0))</f>
@@ -10086,11 +9917,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ8" s="26" t="inlineStr">
+      <c r="AQ8" s="26" t="n">
         <f aca="false">IF(OR(O8="",Q8=""),"",IF(AND(D8=O8,F8=Q8),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR8" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF8="",AH8=""),"",IF(AND(U8=AF8,W8=AH8),2,0))</f>
@@ -10219,9 +10048,13 @@
       </c>
       <c r="M9" s="75"/>
       <c r="N9" s="76"/>
-      <c r="O9" s="40"/>
+      <c r="O9" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" s="43"/>
       <c r="S9" s="70"/>
       <c r="T9" s="71" t="str">
@@ -10258,11 +10091,9 @@
       <c r="AG9" s="41"/>
       <c r="AH9" s="42"/>
       <c r="AI9" s="48"/>
-      <c r="AJ9" s="79" t="inlineStr">
+      <c r="AJ9" s="79" t="n">
         <f aca="false">IF(OR(O9="",Q9=""),"",SUM(AO9,AQ9,AP9,AR9))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AK9" s="26" t="str">
         <f aca="false">IF(D9&gt;F9,"V",IF(D9=F9,"E","D"))</f>
@@ -10274,17 +10105,15 @@
       </c>
       <c r="AM9" s="26" t="str">
         <f aca="false">IF(O9&gt;Q9,"V",IF(O9=Q9,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN9" s="26" t="str">
         <f aca="false">IF(AF9&gt;AH9,"V",IF(AF9=AH9,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO9" s="26" t="inlineStr">
+      <c r="AO9" s="26" t="n">
         <f aca="false">IF(OR(O9="",Q9=""),"",IF(AK9=AM9,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AP9" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF9="",AH9=""),"",IF(AL9=AN9,PFASE1,0))</f>
@@ -10292,11 +10121,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ9" s="26" t="inlineStr">
+      <c r="AQ9" s="26" t="n">
         <f aca="false">IF(OR(O9="",Q9=""),"",IF(AND(D9=O9,F9=Q9),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR9" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF9="",AH9=""),"",IF(AND(U9=AF9,W9=AH9),2,0))</f>
@@ -10552,9 +10379,13 @@
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
+      <c r="O11" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="P11" s="41"/>
-      <c r="Q11" s="42"/>
+      <c r="Q11" s="42" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" s="43"/>
       <c r="S11" s="83"/>
       <c r="T11" s="32" t="str">
@@ -10587,13 +10418,17 @@
       </c>
       <c r="AD11" s="60"/>
       <c r="AE11" s="39"/>
-      <c r="AF11" s="47"/>
+      <c r="AF11" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AG11" s="41"/>
-      <c r="AH11" s="42"/>
+      <c r="AH11" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="AI11" s="0"/>
-      <c r="AJ11" s="49" t="str">
+      <c r="AJ11" s="49" t="n">
         <f aca="false">IF(OR(O11="",Q11=""),"",SUM(AO11,AQ11,AP11,AR11))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AK11" s="26" t="str">
         <f aca="false">IF(D11&gt;F11,"V",IF(D11=F11,"E","D"))</f>
@@ -10605,27 +10440,27 @@
       </c>
       <c r="AM11" s="26" t="str">
         <f aca="false">IF(O11&gt;Q11,"V",IF(O11=Q11,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN11" s="26" t="str">
         <f aca="false">IF(AF11&gt;AH11,"V",IF(AF11=AH11,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO11" s="26" t="str">
+        <v>V</v>
+      </c>
+      <c r="AO11" s="26" t="n">
         <f aca="false">IF(OR(O11="",Q11=""),"",IF(AK11=AM11,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AP11" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="26" t="n">
         <f aca="false">IF(OR(AF11="",AH11=""),"",IF(AL11=AN11,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AQ11" s="26" t="str">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="26" t="n">
         <f aca="false">IF(OR(O11="",Q11=""),"",IF(AND(D11=O11,F11=Q11),EFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AR11" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="26" t="n">
         <f aca="false">IF(OR(AF11="",AH11=""),"",IF(AND(U11=AF11,W11=AH11),2,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX11" s="27" t="n">
         <f aca="false">D11-F11</f>
@@ -10819,9 +10654,13 @@
       </c>
       <c r="M12" s="60"/>
       <c r="N12" s="61"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="40" t="n">
+        <v>3</v>
+      </c>
       <c r="P12" s="41"/>
-      <c r="Q12" s="42"/>
+      <c r="Q12" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" s="43"/>
       <c r="S12" s="55"/>
       <c r="T12" s="56" t="str">
@@ -10854,15 +10693,17 @@
       </c>
       <c r="AD12" s="60"/>
       <c r="AE12" s="61"/>
-      <c r="AF12" s="47"/>
+      <c r="AF12" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="AG12" s="41"/>
-      <c r="AH12" s="42"/>
+      <c r="AH12" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="AI12" s="48"/>
-      <c r="AJ12" s="49" t="inlineStr">
+      <c r="AJ12" s="49" t="n">
         <f aca="false">IF(OR(O12="",Q12=""),"",SUM(AO12,AQ12,AP12,AR12))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK12" s="26" t="str">
         <f aca="false">IF(D12&gt;F12,"V",IF(D12=F12,"E","D"))</f>
@@ -10874,35 +10715,27 @@
       </c>
       <c r="AM12" s="26" t="str">
         <f aca="false">IF(O12&gt;Q12,"V",IF(O12=Q12,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN12" s="26" t="str">
         <f aca="false">IF(AF12&gt;AH12,"V",IF(AF12=AH12,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO12" s="26" t="inlineStr">
+      <c r="AO12" s="26" t="n">
         <f aca="false">IF(OR(O12="",Q12=""),"",IF(AK12=AM12,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP12" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AP12" s="26" t="n">
         <f aca="false">IF(OR(AF12="",AH12=""),"",IF(AL12=AN12,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ12" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="26" t="n">
         <f aca="false">IF(OR(O12="",Q12=""),"",IF(AND(D12=O12,F12=Q12),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR12" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="26" t="n">
         <f aca="false">IF(OR(AF12="",AH12=""),"",IF(AND(U12=AF12,W12=AH12),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX12" s="27" t="n">
         <f aca="false">D12-F12</f>
@@ -11096,9 +10929,13 @@
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="61"/>
-      <c r="O13" s="40"/>
+      <c r="O13" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+      <c r="Q13" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="R13" s="43"/>
       <c r="S13" s="65"/>
       <c r="T13" s="56" t="str">
@@ -11131,15 +10968,17 @@
       </c>
       <c r="AD13" s="60"/>
       <c r="AE13" s="61"/>
-      <c r="AF13" s="47"/>
+      <c r="AF13" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="AG13" s="41"/>
-      <c r="AH13" s="42"/>
+      <c r="AH13" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="AI13" s="48"/>
-      <c r="AJ13" s="49" t="inlineStr">
+      <c r="AJ13" s="49" t="n">
         <f aca="false">IF(OR(O13="",Q13=""),"",SUM(AO13,AQ13,AP13,AR13))</f>
-        <is>
-          <t/>
-        </is>
+        <v>6</v>
       </c>
       <c r="AK13" s="26" t="str">
         <f aca="false">IF(D13&gt;F13,"V",IF(D13=F13,"E","D"))</f>
@@ -11151,35 +10990,27 @@
       </c>
       <c r="AM13" s="26" t="str">
         <f aca="false">IF(O13&gt;Q13,"V",IF(O13=Q13,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN13" s="26" t="str">
         <f aca="false">IF(AF13&gt;AH13,"V",IF(AF13=AH13,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO13" s="26" t="inlineStr">
+        <v>V</v>
+      </c>
+      <c r="AO13" s="26" t="n">
         <f aca="false">IF(OR(O13="",Q13=""),"",IF(AK13=AM13,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP13" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AP13" s="26" t="n">
         <f aca="false">IF(OR(AF13="",AH13=""),"",IF(AL13=AN13,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ13" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="26" t="n">
         <f aca="false">IF(OR(O13="",Q13=""),"",IF(AND(D13=O13,F13=Q13),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR13" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="26" t="n">
         <f aca="false">IF(OR(AF13="",AH13=""),"",IF(AND(U13=AF13,W13=AH13),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX13" s="27" t="n">
         <f aca="false">D13-F13</f>
@@ -11373,9 +11204,13 @@
       </c>
       <c r="M14" s="60"/>
       <c r="N14" s="61"/>
-      <c r="O14" s="40"/>
+      <c r="O14" s="40" t="n">
+        <v>2</v>
+      </c>
       <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="Q14" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" s="43"/>
       <c r="S14" s="55"/>
       <c r="T14" s="56" t="str">
@@ -11408,15 +11243,17 @@
       </c>
       <c r="AD14" s="60"/>
       <c r="AE14" s="61"/>
-      <c r="AF14" s="47"/>
+      <c r="AF14" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="AG14" s="41"/>
-      <c r="AH14" s="42"/>
+      <c r="AH14" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="AI14" s="48"/>
-      <c r="AJ14" s="49" t="inlineStr">
+      <c r="AJ14" s="49" t="n">
         <f aca="false">IF(OR(O14="",Q14=""),"",SUM(AO14,AQ14,AP14,AR14))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK14" s="26" t="str">
         <f aca="false">IF(D14&gt;F14,"V",IF(D14=F14,"E","D"))</f>
@@ -11428,35 +11265,27 @@
       </c>
       <c r="AM14" s="26" t="str">
         <f aca="false">IF(O14&gt;Q14,"V",IF(O14=Q14,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN14" s="26" t="str">
         <f aca="false">IF(AF14&gt;AH14,"V",IF(AF14=AH14,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO14" s="26" t="inlineStr">
+        <v>V</v>
+      </c>
+      <c r="AO14" s="26" t="n">
         <f aca="false">IF(OR(O14="",Q14=""),"",IF(AK14=AM14,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP14" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="26" t="n">
         <f aca="false">IF(OR(AF14="",AH14=""),"",IF(AL14=AN14,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ14" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="26" t="n">
         <f aca="false">IF(OR(O14="",Q14=""),"",IF(AND(D14=O14,F14=Q14),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR14" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="26" t="n">
         <f aca="false">IF(OR(AF14="",AH14=""),"",IF(AND(U14=AF14,W14=AH14),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX14" s="27" t="n">
         <f aca="false">D14-F14</f>
@@ -11650,9 +11479,13 @@
       </c>
       <c r="M15" s="60"/>
       <c r="N15" s="61"/>
-      <c r="O15" s="40"/>
+      <c r="O15" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="Q15" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" s="43"/>
       <c r="S15" s="55"/>
       <c r="T15" s="56" t="str">
@@ -11689,11 +11522,9 @@
       <c r="AG15" s="41"/>
       <c r="AH15" s="42"/>
       <c r="AI15" s="48"/>
-      <c r="AJ15" s="49" t="inlineStr">
+      <c r="AJ15" s="49" t="n">
         <f aca="false">IF(OR(O15="",Q15=""),"",SUM(AO15,AQ15,AP15,AR15))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK15" s="26" t="str">
         <f aca="false">IF(D15&gt;F15,"V",IF(D15=F15,"E","D"))</f>
@@ -11705,17 +11536,15 @@
       </c>
       <c r="AM15" s="26" t="str">
         <f aca="false">IF(O15&gt;Q15,"V",IF(O15=Q15,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN15" s="26" t="str">
         <f aca="false">IF(AF15&gt;AH15,"V",IF(AF15=AH15,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO15" s="26" t="inlineStr">
+      <c r="AO15" s="26" t="n">
         <f aca="false">IF(OR(O15="",Q15=""),"",IF(AK15=AM15,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AP15" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF15="",AH15=""),"",IF(AL15=AN15,PFASE1,0))</f>
@@ -11723,11 +11552,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ15" s="26" t="inlineStr">
+      <c r="AQ15" s="26" t="n">
         <f aca="false">IF(OR(O15="",Q15=""),"",IF(AND(D15=O15,F15=Q15),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR15" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF15="",AH15=""),"",IF(AND(U15=AF15,W15=AH15),2,0))</f>
@@ -11847,9 +11674,13 @@
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="76"/>
-      <c r="O16" s="40"/>
+      <c r="O16" s="40" t="n">
+        <v>2</v>
+      </c>
       <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
+      <c r="Q16" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="R16" s="43"/>
       <c r="S16" s="70"/>
       <c r="T16" s="71" t="str">
@@ -11886,11 +11717,9 @@
       <c r="AG16" s="41"/>
       <c r="AH16" s="42"/>
       <c r="AI16" s="48"/>
-      <c r="AJ16" s="79" t="inlineStr">
+      <c r="AJ16" s="79" t="n">
         <f aca="false">IF(OR(O16="",Q16=""),"",SUM(AO16,AQ16,AP16,AR16))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AK16" s="26" t="str">
         <f aca="false">IF(D16&gt;F16,"V",IF(D16=F16,"E","D"))</f>
@@ -11902,17 +11731,15 @@
       </c>
       <c r="AM16" s="26" t="str">
         <f aca="false">IF(O16&gt;Q16,"V",IF(O16=Q16,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN16" s="26" t="str">
         <f aca="false">IF(AF16&gt;AH16,"V",IF(AF16=AH16,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO16" s="26" t="inlineStr">
+      <c r="AO16" s="26" t="n">
         <f aca="false">IF(OR(O16="",Q16=""),"",IF(AK16=AM16,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AP16" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF16="",AH16=""),"",IF(AL16=AN16,PFASE1,0))</f>
@@ -11920,11 +11747,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ16" s="26" t="inlineStr">
+      <c r="AQ16" s="26" t="n">
         <f aca="false">IF(OR(O16="",Q16=""),"",IF(AND(D16=O16,F16=Q16),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR16" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF16="",AH16=""),"",IF(AND(U16=AF16,W16=AH16),2,0))</f>
@@ -12180,9 +12005,13 @@
       </c>
       <c r="M18" s="38"/>
       <c r="N18" s="39"/>
-      <c r="O18" s="40"/>
+      <c r="O18" s="40" t="n">
+        <v>3</v>
+      </c>
       <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
+      <c r="Q18" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="R18" s="43"/>
       <c r="S18" s="83"/>
       <c r="T18" s="32" t="str">
@@ -12215,13 +12044,17 @@
       </c>
       <c r="AD18" s="60"/>
       <c r="AE18" s="39"/>
-      <c r="AF18" s="47"/>
+      <c r="AF18" s="47" t="n">
+        <v>4</v>
+      </c>
       <c r="AG18" s="41"/>
-      <c r="AH18" s="42"/>
+      <c r="AH18" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="AI18" s="48"/>
-      <c r="AJ18" s="49" t="str">
+      <c r="AJ18" s="49" t="n">
         <f aca="false">IF(OR(O18="",Q18=""),"",SUM(AO18,AQ18,AP18,AR18))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AK18" s="26" t="str">
         <f aca="false">IF(D18&gt;F18,"V",IF(D18=F18,"E","D"))</f>
@@ -12233,27 +12066,27 @@
       </c>
       <c r="AM18" s="26" t="str">
         <f aca="false">IF(O18&gt;Q18,"V",IF(O18=Q18,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN18" s="26" t="str">
         <f aca="false">IF(AF18&gt;AH18,"V",IF(AF18=AH18,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO18" s="26" t="str">
+        <v>V</v>
+      </c>
+      <c r="AO18" s="26" t="n">
         <f aca="false">IF(OR(O18="",Q18=""),"",IF(AK18=AM18,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AP18" s="26" t="str">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="26" t="n">
         <f aca="false">IF(OR(AF18="",AH18=""),"",IF(AL18=AN18,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AQ18" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="26" t="n">
         <f aca="false">IF(OR(O18="",Q18=""),"",IF(AND(D18=O18,F18=Q18),EFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AR18" s="26" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="26" t="n">
         <f aca="false">IF(OR(AF18="",AH18=""),"",IF(AND(U18=AF18,W18=AH18),2,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX18" s="27" t="n">
         <f aca="false">D18-F18</f>
@@ -12447,9 +12280,13 @@
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="61"/>
-      <c r="O19" s="40"/>
+      <c r="O19" s="40" t="n">
+        <v>2</v>
+      </c>
       <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
+      <c r="Q19" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R19" s="43"/>
       <c r="S19" s="55"/>
       <c r="T19" s="56" t="str">
@@ -12482,15 +12319,17 @@
       </c>
       <c r="AD19" s="60"/>
       <c r="AE19" s="61"/>
-      <c r="AF19" s="47"/>
+      <c r="AF19" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="AG19" s="41"/>
-      <c r="AH19" s="42"/>
+      <c r="AH19" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="AI19" s="48"/>
-      <c r="AJ19" s="49" t="inlineStr">
+      <c r="AJ19" s="49" t="n">
         <f aca="false">IF(OR(O19="",Q19=""),"",SUM(AO19,AQ19,AP19,AR19))</f>
-        <is>
-          <t/>
-        </is>
+        <v>5</v>
       </c>
       <c r="AK19" s="26" t="str">
         <f aca="false">IF(D19&gt;F19,"V",IF(D19=F19,"E","D"))</f>
@@ -12502,35 +12341,27 @@
       </c>
       <c r="AM19" s="26" t="str">
         <f aca="false">IF(O19&gt;Q19,"V",IF(O19=Q19,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN19" s="26" t="str">
         <f aca="false">IF(AF19&gt;AH19,"V",IF(AF19=AH19,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO19" s="26" t="inlineStr">
+        <v>D</v>
+      </c>
+      <c r="AO19" s="26" t="n">
         <f aca="false">IF(OR(O19="",Q19=""),"",IF(AK19=AM19,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP19" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="26" t="n">
         <f aca="false">IF(OR(AF19="",AH19=""),"",IF(AL19=AN19,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ19" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AQ19" s="26" t="n">
         <f aca="false">IF(OR(O19="",Q19=""),"",IF(AND(D19=O19,F19=Q19),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR19" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="26" t="n">
         <f aca="false">IF(OR(AF19="",AH19=""),"",IF(AND(U19=AF19,W19=AH19),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>2</v>
       </c>
       <c r="AX19" s="27" t="n">
         <f aca="false">D19-F19</f>
@@ -12724,9 +12555,13 @@
       </c>
       <c r="M20" s="60"/>
       <c r="N20" s="61"/>
-      <c r="O20" s="40"/>
+      <c r="O20" s="40" t="n">
+        <v>2</v>
+      </c>
       <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
+      <c r="Q20" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R20" s="43"/>
       <c r="S20" s="65"/>
       <c r="T20" s="56" t="str">
@@ -12759,15 +12594,17 @@
       </c>
       <c r="AD20" s="60"/>
       <c r="AE20" s="61"/>
-      <c r="AF20" s="47"/>
+      <c r="AF20" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AG20" s="41"/>
-      <c r="AH20" s="42"/>
+      <c r="AH20" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="AI20" s="48"/>
-      <c r="AJ20" s="49" t="inlineStr">
+      <c r="AJ20" s="49" t="n">
         <f aca="false">IF(OR(O20="",Q20=""),"",SUM(AO20,AQ20,AP20,AR20))</f>
-        <is>
-          <t/>
-        </is>
+        <v>5</v>
       </c>
       <c r="AK20" s="26" t="str">
         <f aca="false">IF(D20&gt;F20,"V",IF(D20=F20,"E","D"))</f>
@@ -12779,35 +12616,27 @@
       </c>
       <c r="AM20" s="26" t="str">
         <f aca="false">IF(O20&gt;Q20,"V",IF(O20=Q20,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN20" s="26" t="str">
         <f aca="false">IF(AF20&gt;AH20,"V",IF(AF20=AH20,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO20" s="26" t="inlineStr">
+      <c r="AO20" s="26" t="n">
         <f aca="false">IF(OR(O20="",Q20=""),"",IF(AK20=AM20,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP20" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AP20" s="26" t="n">
         <f aca="false">IF(OR(AF20="",AH20=""),"",IF(AL20=AN20,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ20" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="26" t="n">
         <f aca="false">IF(OR(O20="",Q20=""),"",IF(AND(D20=O20,F20=Q20),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR20" s="26" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="26" t="n">
         <f aca="false">IF(OR(AF20="",AH20=""),"",IF(AND(U20=AF20,W20=AH20),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX20" s="27" t="n">
         <f aca="false">D20-F20</f>
@@ -13001,9 +12830,13 @@
       </c>
       <c r="M21" s="60"/>
       <c r="N21" s="61"/>
-      <c r="O21" s="40"/>
+      <c r="O21" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
+      <c r="Q21" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="R21" s="43"/>
       <c r="S21" s="55"/>
       <c r="T21" s="56" t="str">
@@ -13036,15 +12869,17 @@
       </c>
       <c r="AD21" s="60"/>
       <c r="AE21" s="61"/>
-      <c r="AF21" s="47"/>
+      <c r="AF21" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AG21" s="41"/>
-      <c r="AH21" s="42"/>
+      <c r="AH21" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="AI21" s="48"/>
-      <c r="AJ21" s="49" t="inlineStr">
+      <c r="AJ21" s="49" t="n">
         <f aca="false">IF(OR(O21="",Q21=""),"",SUM(AO21,AQ21,AP21,AR21))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AK21" s="26" t="str">
         <f aca="false">IF(D21&gt;F21,"V",IF(D21=F21,"E","D"))</f>
@@ -13062,29 +12897,21 @@
         <f aca="false">IF(AF21&gt;AH21,"V",IF(AF21=AH21,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO21" s="26" t="inlineStr">
+      <c r="AO21" s="26" t="n">
         <f aca="false">IF(OR(O21="",Q21=""),"",IF(AK21=AM21,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP21" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="26" t="n">
         <f aca="false">IF(OR(AF21="",AH21=""),"",IF(AL21=AN21,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ21" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="26" t="n">
         <f aca="false">IF(OR(O21="",Q21=""),"",IF(AND(D21=O21,F21=Q21),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR21" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="26" t="n">
         <f aca="false">IF(OR(AF21="",AH21=""),"",IF(AND(U21=AF21,W21=AH21),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX21" s="27" t="n">
         <f aca="false">D21-F21</f>
@@ -13808,9 +13635,13 @@
       </c>
       <c r="M25" s="38"/>
       <c r="N25" s="39"/>
-      <c r="O25" s="40"/>
+      <c r="O25" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
+      <c r="Q25" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="R25" s="43"/>
       <c r="S25" s="83"/>
       <c r="T25" s="32" t="str">
@@ -13843,13 +13674,17 @@
       </c>
       <c r="AD25" s="60"/>
       <c r="AE25" s="39"/>
-      <c r="AF25" s="47"/>
+      <c r="AF25" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AG25" s="41"/>
-      <c r="AH25" s="42"/>
+      <c r="AH25" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="AI25" s="48"/>
-      <c r="AJ25" s="49" t="str">
+      <c r="AJ25" s="49" t="n">
         <f aca="false">IF(OR(O25="",Q25=""),"",SUM(AO25,AQ25,AP25,AR25))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AK25" s="26" t="str">
         <f aca="false">IF(D25&gt;F25,"V",IF(D25=F25,"E","D"))</f>
@@ -13861,27 +13696,27 @@
       </c>
       <c r="AM25" s="26" t="str">
         <f aca="false">IF(O25&gt;Q25,"V",IF(O25=Q25,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN25" s="26" t="str">
         <f aca="false">IF(AF25&gt;AH25,"V",IF(AF25=AH25,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO25" s="26" t="str">
+        <v>V</v>
+      </c>
+      <c r="AO25" s="26" t="n">
         <f aca="false">IF(OR(O25="",Q25=""),"",IF(AK25=AM25,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AP25" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="26" t="n">
         <f aca="false">IF(OR(AF25="",AH25=""),"",IF(AL25=AN25,PFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AQ25" s="26" t="str">
+        <v>3</v>
+      </c>
+      <c r="AQ25" s="26" t="n">
         <f aca="false">IF(OR(O25="",Q25=""),"",IF(AND(D25=O25,F25=Q25),EFASE1,0))</f>
-        <v/>
-      </c>
-      <c r="AR25" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="26" t="n">
         <f aca="false">IF(OR(AF25="",AH25=""),"",IF(AND(U25=AF25,W25=AH25),2,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AX25" s="27" t="n">
         <f aca="false">D25-F25</f>
@@ -14075,9 +13910,13 @@
       </c>
       <c r="M26" s="60"/>
       <c r="N26" s="61"/>
-      <c r="O26" s="40"/>
+      <c r="O26" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="Q26" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="R26" s="43"/>
       <c r="S26" s="55"/>
       <c r="T26" s="56" t="str">
@@ -14110,15 +13949,17 @@
       </c>
       <c r="AD26" s="60"/>
       <c r="AE26" s="61"/>
-      <c r="AF26" s="47"/>
+      <c r="AF26" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="AG26" s="41"/>
-      <c r="AH26" s="42"/>
+      <c r="AH26" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="AI26" s="48"/>
-      <c r="AJ26" s="49" t="inlineStr">
+      <c r="AJ26" s="49" t="n">
         <f aca="false">IF(OR(O26="",Q26=""),"",SUM(AO26,AQ26,AP26,AR26))</f>
-        <is>
-          <t/>
-        </is>
+        <v>8</v>
       </c>
       <c r="AK26" s="26" t="str">
         <f aca="false">IF(D26&gt;F26,"V",IF(D26=F26,"E","D"))</f>
@@ -14130,35 +13971,27 @@
       </c>
       <c r="AM26" s="26" t="str">
         <f aca="false">IF(O26&gt;Q26,"V",IF(O26=Q26,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN26" s="26" t="str">
         <f aca="false">IF(AF26&gt;AH26,"V",IF(AF26=AH26,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO26" s="26" t="inlineStr">
+      <c r="AO26" s="26" t="n">
         <f aca="false">IF(OR(O26="",Q26=""),"",IF(AK26=AM26,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP26" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="26" t="n">
         <f aca="false">IF(OR(AF26="",AH26=""),"",IF(AL26=AN26,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ26" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AQ26" s="26" t="n">
         <f aca="false">IF(OR(O26="",Q26=""),"",IF(AND(D26=O26,F26=Q26),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR26" s="26" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="26" t="n">
         <f aca="false">IF(OR(AF26="",AH26=""),"",IF(AND(U26=AF26,W26=AH26),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX26" s="27" t="n">
         <f aca="false">D26-F26</f>
@@ -14352,9 +14185,13 @@
       </c>
       <c r="M27" s="60"/>
       <c r="N27" s="61"/>
-      <c r="O27" s="40"/>
+      <c r="O27" s="40" t="n">
+        <v>2</v>
+      </c>
       <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
+      <c r="Q27" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R27" s="43"/>
       <c r="S27" s="65"/>
       <c r="T27" s="56" t="str">
@@ -14387,15 +14224,17 @@
       </c>
       <c r="AD27" s="60"/>
       <c r="AE27" s="61"/>
-      <c r="AF27" s="47"/>
+      <c r="AF27" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="AG27" s="41"/>
-      <c r="AH27" s="42"/>
+      <c r="AH27" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="AI27" s="48"/>
-      <c r="AJ27" s="49" t="inlineStr">
+      <c r="AJ27" s="49" t="n">
         <f aca="false">IF(OR(O27="",Q27=""),"",SUM(AO27,AQ27,AP27,AR27))</f>
-        <is>
-          <t/>
-        </is>
+        <v>8</v>
       </c>
       <c r="AK27" s="26" t="str">
         <f aca="false">IF(D27&gt;F27,"V",IF(D27=F27,"E","D"))</f>
@@ -14407,35 +14246,27 @@
       </c>
       <c r="AM27" s="26" t="str">
         <f aca="false">IF(O27&gt;Q27,"V",IF(O27=Q27,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN27" s="26" t="str">
         <f aca="false">IF(AF27&gt;AH27,"V",IF(AF27=AH27,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO27" s="26" t="inlineStr">
+        <v>V</v>
+      </c>
+      <c r="AO27" s="26" t="n">
         <f aca="false">IF(OR(O27="",Q27=""),"",IF(AK27=AM27,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP27" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AP27" s="26" t="n">
         <f aca="false">IF(OR(AF27="",AH27=""),"",IF(AL27=AN27,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ27" s="26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="AQ27" s="26" t="n">
         <f aca="false">IF(OR(O27="",Q27=""),"",IF(AND(D27=O27,F27=Q27),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR27" s="26" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="26" t="n">
         <f aca="false">IF(OR(AF27="",AH27=""),"",IF(AND(U27=AF27,W27=AH27),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX27" s="27" t="n">
         <f aca="false">D27-F27</f>
@@ -14629,9 +14460,13 @@
       </c>
       <c r="M28" s="60"/>
       <c r="N28" s="61"/>
-      <c r="O28" s="40"/>
+      <c r="O28" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P28" s="41"/>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" s="43"/>
       <c r="S28" s="55"/>
       <c r="T28" s="56" t="str">
@@ -14664,15 +14499,17 @@
       </c>
       <c r="AD28" s="60"/>
       <c r="AE28" s="61"/>
-      <c r="AF28" s="47"/>
+      <c r="AF28" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AG28" s="41"/>
-      <c r="AH28" s="42"/>
+      <c r="AH28" s="42" t="n">
+        <v>4</v>
+      </c>
       <c r="AI28" s="48"/>
-      <c r="AJ28" s="49" t="inlineStr">
+      <c r="AJ28" s="49" t="n">
         <f aca="false">IF(OR(O28="",Q28=""),"",SUM(AO28,AQ28,AP28,AR28))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AK28" s="26" t="str">
         <f aca="false">IF(D28&gt;F28,"V",IF(D28=F28,"E","D"))</f>
@@ -14684,35 +14521,27 @@
       </c>
       <c r="AM28" s="26" t="str">
         <f aca="false">IF(O28&gt;Q28,"V",IF(O28=Q28,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN28" s="26" t="str">
         <f aca="false">IF(AF28&gt;AH28,"V",IF(AF28=AH28,"E","D"))</f>
-        <v>E</v>
-      </c>
-      <c r="AO28" s="26" t="inlineStr">
+        <v>D</v>
+      </c>
+      <c r="AO28" s="26" t="n">
         <f aca="false">IF(OR(O28="",Q28=""),"",IF(AK28=AM28,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP28" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="26" t="n">
         <f aca="false">IF(OR(AF28="",AH28=""),"",IF(AL28=AN28,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AQ28" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="26" t="n">
         <f aca="false">IF(OR(O28="",Q28=""),"",IF(AND(D28=O28,F28=Q28),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR28" s="26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="26" t="n">
         <f aca="false">IF(OR(AF28="",AH28=""),"",IF(AND(U28=AF28,W28=AH28),2,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AX28" s="27" t="n">
         <f aca="false">D28-F28</f>
@@ -17667,507 +17496,507 @@
     <mergeCell ref="AF66:AH66"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:H9">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C9">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F9">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C16">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C23">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O39">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:O39">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:Q39">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35:Q39">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
       <formula>IF(OR('Mundial 2014'!$M$8="en juego",'Mundial 2014'!$M$8="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
       <formula>IF(OR('Mundial 2014'!$M$9="en juego",'Mundial 2014'!$M$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
       <formula>IF(OR('Mundial 2014'!$A$9="en juego",'Mundial 2014'!$A$9="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>IF(OR('Mundial 2014'!$M$10="en juego",'Mundial 2014'!$M$10="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
       <formula>IF(OR('Mundial 2014'!$M$11="en juego",'Mundial 2014'!$M$11="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J9">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC5">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35:AA41">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC35:AC41">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA9">
-    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AC9">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA16">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC16">
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18:AA23">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC18:AC23">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25:AA30">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25:AC30">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC34">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC57">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA54">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC50:AC51">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AA51">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC44:AC47">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AA47">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC54">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
       <formula>IF(OR('Mundial 2014'!$A$7="en juego",'Mundial 2014'!$A$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D16">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D23">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D30">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F16">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F23">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F30">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W9">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W16">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:W23">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25:U30">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:W30">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:U23">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U16">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U9">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
       <formula>IF(OR('Mundial 2014'!$M$7="en juego",'Mundial 2014'!$M$7="hoy!"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/submissions/Fernando_Romero.xlsx
+++ b/submissions/Fernando_Romero.xlsx
@@ -3139,15 +3139,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>174960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>911520</xdr:colOff>
+      <xdr:colOff>938160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3162,8 +3162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="147960" y="617400"/>
-          <a:ext cx="763560" cy="1001880"/>
+          <a:off x="174960" y="608400"/>
+          <a:ext cx="763200" cy="1001520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3178,15 +3178,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3201,8 +3201,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="1296000"/>
-          <a:ext cx="317160" cy="209160"/>
+          <a:off x="1173240" y="1287000"/>
+          <a:ext cx="316800" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3217,15 +3217,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335880</xdr:colOff>
+      <xdr:colOff>362520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3240,8 +3240,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="1791360"/>
-          <a:ext cx="281880" cy="209160"/>
+          <a:off x="4098600" y="1782360"/>
+          <a:ext cx="281520" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3256,15 +3256,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3279,8 +3279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="800640"/>
-          <a:ext cx="317160" cy="209520"/>
+          <a:off x="1173240" y="791640"/>
+          <a:ext cx="316800" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3295,15 +3295,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335880</xdr:colOff>
+      <xdr:colOff>362520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3318,8 +3318,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="800640"/>
-          <a:ext cx="281880" cy="190080"/>
+          <a:off x="4098600" y="791640"/>
+          <a:ext cx="281520" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3334,15 +3334,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335880</xdr:colOff>
+      <xdr:colOff>362520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3357,8 +3357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="1543680"/>
-          <a:ext cx="281880" cy="190080"/>
+          <a:off x="4098600" y="1534680"/>
+          <a:ext cx="281520" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3373,15 +3373,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3396,8 +3396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="2039040"/>
-          <a:ext cx="317160" cy="189720"/>
+          <a:off x="1173240" y="2030040"/>
+          <a:ext cx="316800" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3412,15 +3412,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3435,8 +3435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="1048320"/>
-          <a:ext cx="317160" cy="221760"/>
+          <a:off x="1173240" y="1039320"/>
+          <a:ext cx="316800" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3451,15 +3451,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3474,8 +3474,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="1296000"/>
-          <a:ext cx="270360" cy="221760"/>
+          <a:off x="4098600" y="1287000"/>
+          <a:ext cx="270000" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3490,15 +3490,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>241920</xdr:rowOff>
+      <xdr:rowOff>232560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3513,8 +3513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="2039040"/>
-          <a:ext cx="270360" cy="222120"/>
+          <a:off x="4098600" y="2030040"/>
+          <a:ext cx="270000" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3529,15 +3529,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3552,8 +3552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="1543680"/>
-          <a:ext cx="317160" cy="190080"/>
+          <a:off x="1173240" y="1534680"/>
+          <a:ext cx="316800" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3568,15 +3568,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3591,8 +3591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="1791360"/>
-          <a:ext cx="317160" cy="189720"/>
+          <a:off x="1173240" y="1782360"/>
+          <a:ext cx="316800" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3607,15 +3607,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3630,8 +3630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="1048320"/>
-          <a:ext cx="270360" cy="190080"/>
+          <a:off x="4098600" y="1039320"/>
+          <a:ext cx="270000" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3646,15 +3646,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>222120</xdr:rowOff>
+      <xdr:rowOff>212760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3669,8 +3669,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="2496240"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="1173240" y="2487240"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3685,15 +3685,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>241920</xdr:rowOff>
+      <xdr:rowOff>232560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3708,8 +3708,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="3486960"/>
-          <a:ext cx="293760" cy="221760"/>
+          <a:off x="4098600" y="3477960"/>
+          <a:ext cx="293400" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3724,15 +3724,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3747,8 +3747,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="2991600"/>
-          <a:ext cx="329040" cy="221760"/>
+          <a:off x="1173240" y="2982600"/>
+          <a:ext cx="328680" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3763,15 +3763,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3786,8 +3786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="2743920"/>
-          <a:ext cx="329040" cy="221760"/>
+          <a:off x="1173240" y="2734920"/>
+          <a:ext cx="328680" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3802,15 +3802,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>232920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3825,8 +3825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="3734640"/>
-          <a:ext cx="293760" cy="222120"/>
+          <a:off x="4098600" y="3725640"/>
+          <a:ext cx="293400" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3841,15 +3841,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3864,8 +3864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="2991600"/>
-          <a:ext cx="293760" cy="221760"/>
+          <a:off x="4098600" y="2982600"/>
+          <a:ext cx="293400" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,15 +3880,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3903,8 +3903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="3486960"/>
-          <a:ext cx="340920" cy="151920"/>
+          <a:off x="1173240" y="3477960"/>
+          <a:ext cx="340560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3919,15 +3919,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3942,8 +3942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="3239280"/>
-          <a:ext cx="340920" cy="151920"/>
+          <a:off x="1173240" y="3230280"/>
+          <a:ext cx="340560" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3958,15 +3958,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3981,8 +3981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="2743920"/>
-          <a:ext cx="293760" cy="151920"/>
+          <a:off x="4098600" y="2734920"/>
+          <a:ext cx="293400" cy="151560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3997,15 +3997,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>232920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4020,8 +4020,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="3734640"/>
-          <a:ext cx="329040" cy="222120"/>
+          <a:off x="1173240" y="3725640"/>
+          <a:ext cx="328680" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4036,15 +4036,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4059,8 +4059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="2496240"/>
-          <a:ext cx="293760" cy="221760"/>
+          <a:off x="4098600" y="2487240"/>
+          <a:ext cx="293400" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4075,15 +4075,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>241920</xdr:rowOff>
+      <xdr:rowOff>232560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4098,8 +4098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="3239280"/>
-          <a:ext cx="293760" cy="221760"/>
+          <a:off x="4098600" y="3230280"/>
+          <a:ext cx="293400" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4114,15 +4114,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4137,8 +4137,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="4191840"/>
-          <a:ext cx="329040" cy="209160"/>
+          <a:off x="1173240" y="4182840"/>
+          <a:ext cx="328680" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,15 +4153,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335880</xdr:colOff>
+      <xdr:colOff>362520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4176,8 +4176,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="5182200"/>
-          <a:ext cx="281880" cy="209160"/>
+          <a:off x="4098600" y="5173200"/>
+          <a:ext cx="281520" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4192,15 +4192,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4215,8 +4215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="4686840"/>
-          <a:ext cx="329040" cy="209520"/>
+          <a:off x="1173240" y="4677840"/>
+          <a:ext cx="328680" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4231,15 +4231,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4254,8 +4254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="4191840"/>
-          <a:ext cx="293760" cy="202320"/>
+          <a:off x="4098600" y="4182840"/>
+          <a:ext cx="293400" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4270,15 +4270,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4293,8 +4293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="4934520"/>
-          <a:ext cx="293760" cy="202680"/>
+          <a:off x="4098600" y="4925520"/>
+          <a:ext cx="293400" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4309,15 +4309,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>222120</xdr:rowOff>
+      <xdr:rowOff>212760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4332,8 +4332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="5429880"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="1173240" y="5420880"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4348,15 +4348,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4371,8 +4371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="4439160"/>
-          <a:ext cx="340920" cy="209520"/>
+          <a:off x="1173240" y="4430160"/>
+          <a:ext cx="340560" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4387,15 +4387,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4410,8 +4410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="4686840"/>
-          <a:ext cx="293760" cy="209520"/>
+          <a:off x="4098600" y="4677840"/>
+          <a:ext cx="293400" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4426,15 +4426,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4449,8 +4449,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="5429880"/>
-          <a:ext cx="293760" cy="209160"/>
+          <a:off x="4098600" y="5420880"/>
+          <a:ext cx="293400" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4465,15 +4465,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4488,8 +4488,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="4934520"/>
-          <a:ext cx="305280" cy="202680"/>
+          <a:off x="1173240" y="4925520"/>
+          <a:ext cx="304920" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4504,15 +4504,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4527,8 +4527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="5182200"/>
-          <a:ext cx="305280" cy="202680"/>
+          <a:off x="1173240" y="5173200"/>
+          <a:ext cx="304920" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4543,15 +4543,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4566,8 +4566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="4439160"/>
-          <a:ext cx="270360" cy="202680"/>
+          <a:off x="4098600" y="4430160"/>
+          <a:ext cx="270000" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4582,15 +4582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4605,8 +4605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="5887080"/>
-          <a:ext cx="329040" cy="221760"/>
+          <a:off x="1173240" y="5878080"/>
+          <a:ext cx="328680" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4621,15 +4621,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4644,8 +4644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="6877800"/>
-          <a:ext cx="293760" cy="221760"/>
+          <a:off x="4098600" y="6868800"/>
+          <a:ext cx="293400" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4660,15 +4660,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4683,8 +4683,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="6382440"/>
-          <a:ext cx="329040" cy="221760"/>
+          <a:off x="1173240" y="6373440"/>
+          <a:ext cx="328680" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4699,15 +4699,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4722,8 +4722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="5887080"/>
-          <a:ext cx="293760" cy="190080"/>
+          <a:off x="4098600" y="5878080"/>
+          <a:ext cx="293400" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4738,15 +4738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4761,8 +4761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="6630120"/>
-          <a:ext cx="293760" cy="189720"/>
+          <a:off x="4098600" y="6621120"/>
+          <a:ext cx="293400" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4777,15 +4777,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4800,8 +4800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="7125480"/>
-          <a:ext cx="340920" cy="189720"/>
+          <a:off x="1173240" y="7116480"/>
+          <a:ext cx="340560" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4816,15 +4816,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4839,8 +4839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="6134760"/>
-          <a:ext cx="340920" cy="189720"/>
+          <a:off x="1173240" y="6125760"/>
+          <a:ext cx="340560" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4855,15 +4855,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4878,8 +4878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="6382440"/>
-          <a:ext cx="293760" cy="189720"/>
+          <a:off x="4098600" y="6373440"/>
+          <a:ext cx="293400" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4894,15 +4894,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4917,8 +4917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="7125480"/>
-          <a:ext cx="293760" cy="189720"/>
+          <a:off x="4098600" y="7116480"/>
+          <a:ext cx="293400" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4933,15 +4933,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4956,8 +4956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="6630120"/>
-          <a:ext cx="329040" cy="221760"/>
+          <a:off x="1173240" y="6621120"/>
+          <a:ext cx="328680" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4972,15 +4972,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4995,8 +4995,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1146240" y="6877800"/>
-          <a:ext cx="329040" cy="221760"/>
+          <a:off x="1173240" y="6868800"/>
+          <a:ext cx="328680" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5011,15 +5011,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>241560</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5034,8 +5034,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071600" y="6134760"/>
-          <a:ext cx="293760" cy="221760"/>
+          <a:off x="4098600" y="6125760"/>
+          <a:ext cx="293400" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5050,15 +5050,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5073,8 +5073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="788040"/>
-          <a:ext cx="329040" cy="215280"/>
+          <a:off x="7846560" y="779040"/>
+          <a:ext cx="328680" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5089,15 +5089,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5112,8 +5112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="1778760"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="1769760"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5128,15 +5128,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5151,8 +5151,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="1283400"/>
-          <a:ext cx="329040" cy="202680"/>
+          <a:off x="7846560" y="1274400"/>
+          <a:ext cx="328680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5167,15 +5167,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5190,8 +5190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="788040"/>
-          <a:ext cx="293040" cy="202680"/>
+          <a:off x="11313000" y="779040"/>
+          <a:ext cx="292680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5206,15 +5206,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5229,8 +5229,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="1531080"/>
-          <a:ext cx="293040" cy="202680"/>
+          <a:off x="11313000" y="1522080"/>
+          <a:ext cx="292680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5245,15 +5245,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5268,8 +5268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="2026440"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="7846560" y="2017440"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5284,15 +5284,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5307,8 +5307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="1035720"/>
-          <a:ext cx="329040" cy="202680"/>
+          <a:off x="7846560" y="1026720"/>
+          <a:ext cx="328680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5323,15 +5323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5346,8 +5346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="1283400"/>
-          <a:ext cx="293040" cy="202680"/>
+          <a:off x="11313000" y="1274400"/>
+          <a:ext cx="292680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5362,15 +5362,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5385,8 +5385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="2026440"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="2017440"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5401,15 +5401,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5424,8 +5424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="2483640"/>
-          <a:ext cx="340920" cy="202320"/>
+          <a:off x="7846560" y="2474640"/>
+          <a:ext cx="340560" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5440,15 +5440,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5463,8 +5463,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="3474360"/>
-          <a:ext cx="340560" cy="202320"/>
+          <a:off x="11313000" y="3465360"/>
+          <a:ext cx="340200" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5479,15 +5479,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5502,8 +5502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="2979000"/>
-          <a:ext cx="340920" cy="202320"/>
+          <a:off x="7846560" y="2970000"/>
+          <a:ext cx="340560" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5518,15 +5518,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>222120</xdr:rowOff>
+      <xdr:rowOff>212760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5541,8 +5541,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="5874480"/>
-          <a:ext cx="329040" cy="214920"/>
+          <a:off x="7846560" y="5865480"/>
+          <a:ext cx="328680" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5557,15 +5557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5580,8 +5580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="6865200"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="6856200"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5596,15 +5596,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5619,8 +5619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="6369840"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="7846560" y="6360840"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5635,15 +5635,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5658,8 +5658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="5874480"/>
-          <a:ext cx="293040" cy="202680"/>
+          <a:off x="11313000" y="5865480"/>
+          <a:ext cx="292680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5674,15 +5674,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5697,8 +5697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="6617520"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="6608520"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5713,15 +5713,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5736,8 +5736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="7112880"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="7846560" y="7103880"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5752,15 +5752,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5775,8 +5775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="7112880"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="7103880"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5791,15 +5791,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5814,8 +5814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="6369840"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="6360840"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5830,15 +5830,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5853,8 +5853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="6122160"/>
-          <a:ext cx="340920" cy="202320"/>
+          <a:off x="7846560" y="6113160"/>
+          <a:ext cx="340560" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5869,15 +5869,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5892,8 +5892,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="6617520"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="7846560" y="6608520"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5908,15 +5908,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5931,8 +5931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="6865200"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="7846560" y="6856200"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5947,15 +5947,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5970,8 +5970,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="6122160"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="6113160"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5986,15 +5986,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>195480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6009,8 +6009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="4166640"/>
-          <a:ext cx="340920" cy="202320"/>
+          <a:off x="7846560" y="4157640"/>
+          <a:ext cx="340560" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6025,15 +6025,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>233280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6048,8 +6048,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="5157000"/>
-          <a:ext cx="340560" cy="202680"/>
+          <a:off x="11313000" y="5148000"/>
+          <a:ext cx="340200" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6064,15 +6064,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>242640</xdr:rowOff>
+      <xdr:rowOff>233640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6087,8 +6087,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="4662000"/>
-          <a:ext cx="340920" cy="202320"/>
+          <a:off x="7846560" y="4653000"/>
+          <a:ext cx="340560" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6103,15 +6103,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>195480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6126,8 +6126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="4166640"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="4157640"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6142,15 +6142,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>233280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6165,8 +6165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="5404680"/>
-          <a:ext cx="329040" cy="202680"/>
+          <a:off x="7846560" y="5395680"/>
+          <a:ext cx="328680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6181,15 +6181,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>233280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6204,8 +6204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="4909320"/>
-          <a:ext cx="293040" cy="202680"/>
+          <a:off x="11313000" y="4900320"/>
+          <a:ext cx="292680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6220,15 +6220,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>242640</xdr:rowOff>
+      <xdr:rowOff>233640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6243,8 +6243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="4414320"/>
-          <a:ext cx="329040" cy="202320"/>
+          <a:off x="7846560" y="4405320"/>
+          <a:ext cx="328680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6259,15 +6259,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>233280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6282,8 +6282,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="5404680"/>
-          <a:ext cx="293040" cy="202680"/>
+          <a:off x="11313000" y="5395680"/>
+          <a:ext cx="292680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6298,15 +6298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>242640</xdr:rowOff>
+      <xdr:rowOff>233640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6321,8 +6321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="4662000"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="4653000"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6337,15 +6337,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>242640</xdr:rowOff>
+      <xdr:rowOff>233640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6360,8 +6360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="4414320"/>
-          <a:ext cx="293040" cy="202320"/>
+          <a:off x="11313000" y="4405320"/>
+          <a:ext cx="292680" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6376,15 +6376,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>233280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6399,8 +6399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="4909320"/>
-          <a:ext cx="329040" cy="202680"/>
+          <a:off x="7846560" y="4900320"/>
+          <a:ext cx="328680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6415,15 +6415,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>242280</xdr:rowOff>
+      <xdr:rowOff>233280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6438,8 +6438,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="5157000"/>
-          <a:ext cx="329040" cy="202680"/>
+          <a:off x="7846560" y="5148000"/>
+          <a:ext cx="328680" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6454,15 +6454,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>222120</xdr:rowOff>
+      <xdr:rowOff>212760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6477,8 +6477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="2483640"/>
-          <a:ext cx="340560" cy="214920"/>
+          <a:off x="11313000" y="2474640"/>
+          <a:ext cx="340200" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6493,15 +6493,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6516,8 +6516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="3226680"/>
-          <a:ext cx="340560" cy="221760"/>
+          <a:off x="11313000" y="3217680"/>
+          <a:ext cx="340200" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6532,15 +6532,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6555,8 +6555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="3722040"/>
-          <a:ext cx="340920" cy="221760"/>
+          <a:off x="7846560" y="3713040"/>
+          <a:ext cx="340560" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6571,15 +6571,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6594,8 +6594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="2731320"/>
-          <a:ext cx="353160" cy="221760"/>
+          <a:off x="7846560" y="2722320"/>
+          <a:ext cx="352800" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6610,15 +6610,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6633,8 +6633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="2979000"/>
-          <a:ext cx="352440" cy="221760"/>
+          <a:off x="11313000" y="2970000"/>
+          <a:ext cx="352080" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6649,15 +6649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6672,8 +6672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="3722040"/>
-          <a:ext cx="352440" cy="221760"/>
+          <a:off x="11313000" y="3713040"/>
+          <a:ext cx="352080" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6688,15 +6688,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6711,8 +6711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="3226680"/>
-          <a:ext cx="353160" cy="214920"/>
+          <a:off x="7846560" y="3217680"/>
+          <a:ext cx="352800" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6727,15 +6727,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6750,8 +6750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="3474360"/>
-          <a:ext cx="353160" cy="214920"/>
+          <a:off x="7846560" y="3465360"/>
+          <a:ext cx="352800" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6766,15 +6766,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>222120</xdr:rowOff>
+      <xdr:rowOff>212760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6789,8 +6789,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="2731320"/>
-          <a:ext cx="352440" cy="214920"/>
+          <a:off x="11313000" y="2722320"/>
+          <a:ext cx="352080" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6805,15 +6805,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6828,8 +6828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="1531080"/>
-          <a:ext cx="340920" cy="221760"/>
+          <a:off x="7846560" y="1522080"/>
+          <a:ext cx="340560" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6844,15 +6844,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6867,8 +6867,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819560" y="1778760"/>
-          <a:ext cx="340920" cy="221760"/>
+          <a:off x="7846560" y="1769760"/>
+          <a:ext cx="340560" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6883,15 +6883,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6906,8 +6906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11286000" y="1035720"/>
-          <a:ext cx="340560" cy="221760"/>
+          <a:off x="11313000" y="1026720"/>
+          <a:ext cx="340200" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6922,15 +6922,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>653040</xdr:colOff>
+      <xdr:colOff>680040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6945,8 +6945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="653040" y="8002440"/>
-          <a:ext cx="4312080" cy="4583880"/>
+          <a:off x="680040" y="7993440"/>
+          <a:ext cx="4311720" cy="4583520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6966,15 +6966,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6989,8 +6989,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="426600"/>
-          <a:ext cx="327960" cy="196560"/>
+          <a:off x="2101320" y="417600"/>
+          <a:ext cx="327600" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7005,15 +7005,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7028,8 +7028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="636120"/>
-          <a:ext cx="316080" cy="208800"/>
+          <a:off x="2101320" y="627120"/>
+          <a:ext cx="315720" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7044,15 +7044,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7067,8 +7067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="845640"/>
-          <a:ext cx="316080" cy="196560"/>
+          <a:off x="2101320" y="836640"/>
+          <a:ext cx="315720" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7083,15 +7083,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>195480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7106,8 +7106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="204480"/>
-          <a:ext cx="327960" cy="209160"/>
+          <a:off x="2101320" y="195480"/>
+          <a:ext cx="327600" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7122,15 +7122,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7145,8 +7145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="1055160"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2101320" y="1046160"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7161,15 +7161,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7184,8 +7184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="1264680"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="1255680"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7200,15 +7200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7223,8 +7223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="1474200"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="1465200"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7239,15 +7239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7262,8 +7262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="1697040"/>
-          <a:ext cx="327960" cy="163800"/>
+          <a:off x="2089440" y="1688040"/>
+          <a:ext cx="327600" cy="163440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7278,15 +7278,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7301,8 +7301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="1893240"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="1884240"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7317,15 +7317,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7340,8 +7340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="2102760"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="2093760"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7356,15 +7356,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7379,8 +7379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="2300040"/>
-          <a:ext cx="327960" cy="221040"/>
+          <a:off x="2089440" y="2291040"/>
+          <a:ext cx="327600" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7395,15 +7395,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7418,8 +7418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="2509560"/>
-          <a:ext cx="257760" cy="195840"/>
+          <a:off x="2101320" y="2500560"/>
+          <a:ext cx="257400" cy="195480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7434,15 +7434,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>195480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7457,8 +7457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="2719080"/>
-          <a:ext cx="327960" cy="209160"/>
+          <a:off x="2089440" y="2710080"/>
+          <a:ext cx="327600" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7473,15 +7473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7496,8 +7496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="2941200"/>
-          <a:ext cx="327960" cy="196560"/>
+          <a:off x="2089440" y="2932200"/>
+          <a:ext cx="327600" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7512,15 +7512,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7535,8 +7535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="3138480"/>
-          <a:ext cx="327960" cy="195480"/>
+          <a:off x="2089440" y="3129480"/>
+          <a:ext cx="327600" cy="195120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7551,15 +7551,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7574,8 +7574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="3360240"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="3351240"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7590,15 +7590,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7613,8 +7613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="3557520"/>
-          <a:ext cx="327960" cy="221040"/>
+          <a:off x="2101320" y="3548520"/>
+          <a:ext cx="327600" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7629,15 +7629,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7652,8 +7652,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="3767040"/>
-          <a:ext cx="327960" cy="221040"/>
+          <a:off x="2089440" y="3758040"/>
+          <a:ext cx="327600" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7668,15 +7668,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7691,8 +7691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="3976560"/>
-          <a:ext cx="327960" cy="221040"/>
+          <a:off x="2089440" y="3967560"/>
+          <a:ext cx="327600" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7707,15 +7707,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7730,8 +7730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="4186080"/>
-          <a:ext cx="339840" cy="221040"/>
+          <a:off x="2089440" y="4177080"/>
+          <a:ext cx="339480" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7746,15 +7746,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7769,8 +7769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="4395600"/>
-          <a:ext cx="339840" cy="221040"/>
+          <a:off x="2089440" y="4386600"/>
+          <a:ext cx="339480" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7785,15 +7785,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>191880</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7808,8 +7808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="4592160"/>
-          <a:ext cx="339840" cy="221760"/>
+          <a:off x="2089440" y="4583160"/>
+          <a:ext cx="339480" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7824,15 +7824,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>191880</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7847,8 +7847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050560" y="4801680"/>
-          <a:ext cx="351720" cy="221760"/>
+          <a:off x="2077560" y="4792680"/>
+          <a:ext cx="351360" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7863,15 +7863,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>194400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7886,8 +7886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050560" y="5024160"/>
-          <a:ext cx="351720" cy="208800"/>
+          <a:off x="2077560" y="5015160"/>
+          <a:ext cx="351360" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7902,15 +7902,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7925,8 +7925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050560" y="5246280"/>
-          <a:ext cx="339840" cy="208800"/>
+          <a:off x="2077560" y="5237280"/>
+          <a:ext cx="339480" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7941,15 +7941,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7964,8 +7964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="5455800"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="5446800"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7980,15 +7980,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8003,8 +8003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="5665320"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="5656320"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8019,15 +8019,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8042,8 +8042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="5874840"/>
-          <a:ext cx="327960" cy="196560"/>
+          <a:off x="2089440" y="5865840"/>
+          <a:ext cx="327600" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8058,15 +8058,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8081,8 +8081,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="6084360"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="6075360"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8097,15 +8097,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8120,8 +8120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2074320" y="6281640"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2101320" y="6272640"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8136,15 +8136,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8159,8 +8159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="6491160"/>
-          <a:ext cx="327960" cy="208800"/>
+          <a:off x="2089440" y="6482160"/>
+          <a:ext cx="327600" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8175,15 +8175,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>91800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8198,8 +8198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050560" y="6700680"/>
-          <a:ext cx="339840" cy="221040"/>
+          <a:off x="2077560" y="6691680"/>
+          <a:ext cx="339480" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8222,10 +8222,10 @@
   </sheetPr>
   <dimension ref="A1:CR66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AH29" activeCellId="0" sqref="AH29"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8419,7 +8419,7 @@
       <c r="AI2" s="10"/>
       <c r="AJ2" s="16" t="n">
         <f aca="false">SUM(AJ4:AJ66)</f>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="0"/>
       <c r="AL2" s="0"/>
@@ -13105,9 +13105,13 @@
       </c>
       <c r="M22" s="60"/>
       <c r="N22" s="61"/>
-      <c r="O22" s="40"/>
+      <c r="O22" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
+      <c r="Q22" s="42" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" s="43"/>
       <c r="S22" s="55"/>
       <c r="T22" s="56" t="str">
@@ -13144,11 +13148,9 @@
       <c r="AG22" s="41"/>
       <c r="AH22" s="42"/>
       <c r="AI22" s="48"/>
-      <c r="AJ22" s="49" t="inlineStr">
+      <c r="AJ22" s="49" t="n">
         <f aca="false">IF(OR(O22="",Q22=""),"",SUM(AO22,AQ22,AP22,AR22))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK22" s="26" t="str">
         <f aca="false">IF(D22&gt;F22,"V",IF(D22=F22,"E","D"))</f>
@@ -13160,17 +13162,15 @@
       </c>
       <c r="AM22" s="26" t="str">
         <f aca="false">IF(O22&gt;Q22,"V",IF(O22=Q22,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN22" s="26" t="str">
         <f aca="false">IF(AF22&gt;AH22,"V",IF(AF22=AH22,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO22" s="26" t="inlineStr">
+      <c r="AO22" s="26" t="n">
         <f aca="false">IF(OR(O22="",Q22=""),"",IF(AK22=AM22,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AP22" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF22="",AH22=""),"",IF(AL22=AN22,PFASE1,0))</f>
@@ -13178,11 +13178,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ22" s="26" t="inlineStr">
+      <c r="AQ22" s="26" t="n">
         <f aca="false">IF(OR(O22="",Q22=""),"",IF(AND(D22=O22,F22=Q22),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR22" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF22="",AH22=""),"",IF(AND(U22=AF22,W22=AH22),2,0))</f>
@@ -13302,9 +13300,13 @@
       </c>
       <c r="M23" s="75"/>
       <c r="N23" s="76"/>
-      <c r="O23" s="40"/>
+      <c r="O23" s="40" t="n">
+        <v>2</v>
+      </c>
       <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R23" s="43"/>
       <c r="S23" s="70"/>
       <c r="T23" s="71" t="str">
@@ -13341,11 +13343,9 @@
       <c r="AG23" s="41"/>
       <c r="AH23" s="42"/>
       <c r="AI23" s="48"/>
-      <c r="AJ23" s="79" t="inlineStr">
+      <c r="AJ23" s="79" t="n">
         <f aca="false">IF(OR(O23="",Q23=""),"",SUM(AO23,AQ23,AP23,AR23))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AK23" s="26" t="str">
         <f aca="false">IF(D23&gt;F23,"V",IF(D23=F23,"E","D"))</f>
@@ -13357,17 +13357,15 @@
       </c>
       <c r="AM23" s="26" t="str">
         <f aca="false">IF(O23&gt;Q23,"V",IF(O23=Q23,"E","D"))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="AN23" s="26" t="str">
         <f aca="false">IF(AF23&gt;AH23,"V",IF(AF23=AH23,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO23" s="26" t="inlineStr">
+      <c r="AO23" s="26" t="n">
         <f aca="false">IF(OR(O23="",Q23=""),"",IF(AK23=AM23,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AP23" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF23="",AH23=""),"",IF(AL23=AN23,PFASE1,0))</f>
@@ -13375,11 +13373,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ23" s="26" t="inlineStr">
+      <c r="AQ23" s="26" t="n">
         <f aca="false">IF(OR(O23="",Q23=""),"",IF(AND(D23=O23,F23=Q23),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR23" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF23="",AH23=""),"",IF(AND(U23=AF23,W23=AH23),2,0))</f>
@@ -14735,9 +14731,13 @@
       </c>
       <c r="M29" s="60"/>
       <c r="N29" s="61"/>
-      <c r="O29" s="40"/>
+      <c r="O29" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="Q29" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="R29" s="43"/>
       <c r="S29" s="55"/>
       <c r="T29" s="56" t="str">
@@ -14774,11 +14774,9 @@
       <c r="AG29" s="41"/>
       <c r="AH29" s="42"/>
       <c r="AI29" s="48"/>
-      <c r="AJ29" s="49" t="inlineStr">
+      <c r="AJ29" s="49" t="n">
         <f aca="false">IF(OR(O29="",Q29=""),"",SUM(AO29,AQ29,AP29,AR29))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK29" s="26" t="str">
         <f aca="false">IF(D29&gt;F29,"V",IF(D29=F29,"E","D"))</f>
@@ -14790,17 +14788,15 @@
       </c>
       <c r="AM29" s="26" t="str">
         <f aca="false">IF(O29&gt;Q29,"V",IF(O29=Q29,"E","D"))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AN29" s="26" t="str">
         <f aca="false">IF(AF29&gt;AH29,"V",IF(AF29=AH29,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO29" s="26" t="inlineStr">
+      <c r="AO29" s="26" t="n">
         <f aca="false">IF(OR(O29="",Q29=""),"",IF(AK29=AM29,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AP29" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF29="",AH29=""),"",IF(AL29=AN29,PFASE1,0))</f>
@@ -14808,11 +14804,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ29" s="26" t="inlineStr">
+      <c r="AQ29" s="26" t="n">
         <f aca="false">IF(OR(O29="",Q29=""),"",IF(AND(D29=O29,F29=Q29),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR29" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF29="",AH29=""),"",IF(AND(U29=AF29,W29=AH29),2,0))</f>
@@ -14910,9 +14904,13 @@
       </c>
       <c r="M30" s="60"/>
       <c r="N30" s="61"/>
-      <c r="O30" s="40"/>
+      <c r="O30" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="Q30" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="R30" s="43"/>
       <c r="S30" s="65"/>
       <c r="T30" s="56" t="str">
@@ -14949,11 +14947,9 @@
       <c r="AG30" s="41"/>
       <c r="AH30" s="42"/>
       <c r="AI30" s="48"/>
-      <c r="AJ30" s="79" t="inlineStr">
+      <c r="AJ30" s="79" t="n">
         <f aca="false">IF(OR(O30="",Q30=""),"",SUM(AO30,AQ30,AP30,AR30))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AK30" s="26" t="str">
         <f aca="false">IF(D30&gt;F30,"V",IF(D30=F30,"E","D"))</f>
@@ -14971,11 +14967,9 @@
         <f aca="false">IF(AF30&gt;AH30,"V",IF(AF30=AH30,"E","D"))</f>
         <v>E</v>
       </c>
-      <c r="AO30" s="26" t="inlineStr">
+      <c r="AO30" s="26" t="n">
         <f aca="false">IF(OR(O30="",Q30=""),"",IF(AK30=AM30,PFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>3</v>
       </c>
       <c r="AP30" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF30="",AH30=""),"",IF(AL30=AN30,PFASE1,0))</f>
@@ -14983,11 +14977,9 @@
           <t/>
         </is>
       </c>
-      <c r="AQ30" s="26" t="inlineStr">
+      <c r="AQ30" s="26" t="n">
         <f aca="false">IF(OR(O30="",Q30=""),"",IF(AND(D30=O30,F30=Q30),EFASE1,0))</f>
-        <is>
-          <t/>
-        </is>
+        <v>0</v>
       </c>
       <c r="AR30" s="26" t="inlineStr">
         <f aca="false">IF(OR(AF30="",AH30=""),"",IF(AND(U30=AF30,W30=AH30),2,0))</f>
